--- a/src/main/resources/import_test_data/tc2_buyer1.xlsx
+++ b/src/main/resources/import_test_data/tc2_buyer1.xlsx
@@ -16,18 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>supplier1</t>
   </si>
   <si>
-    <t>24.07.2016</t>
-  </si>
-  <si>
     <t>supplier2</t>
   </si>
   <si>
-    <t>18.08.2016</t>
+    <t>11as</t>
+  </si>
+  <si>
+    <t>22dd</t>
+  </si>
+  <si>
+    <t>24.09.2016</t>
+  </si>
+  <si>
+    <t>28.08.2016</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,26 +385,32 @@
     <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>100</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1">
+        <v>10000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/import_test_data/tc2_buyer1.xlsx
+++ b/src/main/resources/import_test_data/tc2_buyer1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>supplier1</t>
   </si>
@@ -33,7 +33,7 @@
     <t>24.09.2016</t>
   </si>
   <si>
-    <t>28.08.2016</t>
+    <t>11dd</t>
   </si>
 </sst>
 </file>
@@ -74,7 +74,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -87,9 +87,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -127,7 +127,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -199,7 +199,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -373,16 +373,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -395,21 +395,35 @@
       <c r="C1">
         <v>10000</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
+      <c r="D1" s="1">
+        <v>42641</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>3000</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3">
+        <v>20000</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
